--- a/Lottery/6-49/lottery.xlsx
+++ b/Lottery/6-49/lottery.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\R\R-Language-lessons\Lottery\6-49\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Лист4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">Sheet1!$B$10:$B$58</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">Sheet1!$H$10:$H$58</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -29,161 +29,158 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="49">
   <si>
-    <t xml:space="preserve">числото</t>
+    <t>числото</t>
   </si>
   <si>
     <t xml:space="preserve">се е паднало </t>
   </si>
   <si>
-    <t xml:space="preserve">пъти в последните 26 тегления</t>
+    <t>пъти в последните 26 тегления</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 15 се е падало 4 пъти!</t>
+    <t>Числото 15 се е падало 4 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 32 се е падало 6 пъти!</t>
+    <t>Числото 32 се е падало 6 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 41 се е падало 2 пъти!</t>
+    <t>Числото 41 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 43 се е падало 3 пъти!</t>
+    <t>Числото 43 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 44 се е падало 6 пъти!</t>
+    <t>Числото 44 се е падало 6 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 48 се е падало 3 пъти!</t>
+    <t>Числото 48 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 5 се е падало 5 пъти!</t>
+    <t>Числото 5 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 10 се е падало 2 пъти!</t>
+    <t>Числото 10 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 12 се е падало 3 пъти!</t>
+    <t>Числото 12 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 31 се е падало 5 пъти!</t>
+    <t>Числото 31 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 17 се е падало 5 пъти!</t>
+    <t>Числото 17 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 22 се е падало 2 пъти!</t>
+    <t>Числото 22 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 25 се е падало 2 пъти!</t>
+    <t>Числото 25 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 26 се е падало 1 пъти!</t>
+    <t>Числото 26 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 46 се е падало 1 пъти!</t>
+    <t>Числото 46 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 49 се е падало 7 пъти!</t>
+    <t>Числото 49 се е падало 7 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 2 се е падало 2 пъти!</t>
+    <t>Числото 2 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 3 се е падало 3 пъти!</t>
+    <t>Числото 3 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 11 се е падало 4 пъти!</t>
+    <t>Числото 11 се е падало 4 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 13 се е падало 5 пъти!</t>
+    <t>Числото 13 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 45 се е падало 3 пъти!</t>
+    <t>Числото 45 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 8 се е падало 3 пъти!</t>
+    <t>Числото 8 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 24 се е падало 3 пъти!</t>
+    <t>Числото 24 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 35 се е падало 4 пъти!</t>
+    <t>Числото 35 се е падало 4 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 39 се е падало 2 пъти!</t>
+    <t>Числото 39 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 7 се е падало 3 пъти!</t>
+    <t>Числото 7 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 19 се е падало 5 пъти!</t>
+    <t>Числото 19 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 23 се е падало 4 пъти!</t>
+    <t>Числото 23 се е падало 4 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 14 се е падало 3 пъти!</t>
+    <t>Числото 14 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 16 се е падало 5 пъти!</t>
+    <t>Числото 16 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 20 се е падало 2 пъти!</t>
+    <t>Числото 20 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 37 се е падало 3 пъти!</t>
+    <t>Числото 37 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 33 се е падало 6 пъти!</t>
+    <t>Числото 33 се е падало 6 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 40 се е падало 2 пъти!</t>
+    <t>Числото 40 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 42 се е падало 2 пъти!</t>
+    <t>Числото 42 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 30 се е падало 3 пъти!</t>
+    <t>Числото 30 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 29 се е падало 2 пъти!</t>
+    <t>Числото 29 се е падало 2 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 34 се е падало 3 пъти!</t>
+    <t>Числото 34 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 18 се е падало 5 пъти!</t>
+    <t>Числото 18 се е падало 5 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 6 се е падало 3 пъти!</t>
+    <t>Числото 6 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 36 се е падало 1 пъти!</t>
+    <t>Числото 36 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 38 се е падало 1 пъти!</t>
+    <t>Числото 38 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 21 се е падало 1 пъти!</t>
+    <t>Числото 21 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 27 се е падало 3 пъти!</t>
+    <t>Числото 27 се е падало 3 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 9 се е падало 1 пъти!</t>
+    <t>Числото 9 се е падало 1 пъти!</t>
   </si>
   <si>
-    <t xml:space="preserve">Числото 47 се е падало 3 пъти!</t>
+    <t>Числото 47 се е падало 3 пъти!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,37 +189,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -247,7 +218,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -255,57 +226,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -364,17 +300,37 @@
       <rgbColor rgb="FF535353"/>
       <rgbColor rgb="FF223962"/>
       <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -386,97 +342,145 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="243e55"/>
+                <a:srgbClr val="243E55"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5f3214"/>
+                <a:srgbClr val="5F3214"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="424242"/>
@@ -485,130 +489,202 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="664d00"/>
+                <a:srgbClr val="664D00"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="1b2e4e"/>
+                <a:srgbClr val="1B2E4E"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="2d451c"/>
+                <a:srgbClr val="2D451C"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7cafdd"/>
+                <a:srgbClr val="7CAFDD"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f1975a"/>
+                <a:srgbClr val="F1975A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="b7b7b7"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffcd33"/>
+                <a:srgbClr val="FFCD33"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="698ed0"/>
+                <a:srgbClr val="698ED0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8dbd6c"/>
+                <a:srgbClr val="8DBD6C"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="121f2b"/>
+                <a:srgbClr val="121F2B"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="2f190a"/>
+                <a:srgbClr val="2F190A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="212121"/>
@@ -617,9 +693,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="332600"/>
@@ -628,119 +710,185 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0e1727"/>
+                <a:srgbClr val="0E1727"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="16230e"/>
+                <a:srgbClr val="16230E"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9dc3e6"/>
+                <a:srgbClr val="9DC3E6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f4b183"/>
+                <a:srgbClr val="F4B183"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c9c9c9"/>
+                <a:srgbClr val="C9C9C9"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd966"/>
+                <a:srgbClr val="FFD966"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8faadc"/>
+                <a:srgbClr val="8FAADC"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a9ce91"/>
+                <a:srgbClr val="A9CE91"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="2e4e6b"/>
+                <a:srgbClr val="2E4E6B"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="773f19"/>
+                <a:srgbClr val="773F19"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="535353"/>
@@ -749,9 +897,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="806000"/>
@@ -760,9 +914,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="223962"/>
@@ -771,9 +931,15 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="385724"/>
@@ -782,97 +948,151 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8cb9e2"/>
+                <a:srgbClr val="8CB9E2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f2a46f"/>
+                <a:srgbClr val="F2A46F"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c0c0c0"/>
+                <a:srgbClr val="C0C0C0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd34d"/>
+                <a:srgbClr val="FFD34D"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7c9cd6"/>
+                <a:srgbClr val="7C9CD6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9bc67e"/>
+                <a:srgbClr val="9BC67E"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="1b2f40"/>
+                <a:srgbClr val="1B2F40"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="47260f"/>
+                <a:srgbClr val="47260F"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="323232"/>
@@ -881,31 +1101,49 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4d3a00"/>
+                <a:srgbClr val="4D3A00"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="14223b"/>
+                <a:srgbClr val="14223B"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="223415"/>
@@ -914,467 +1152,48 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="adcdea"/>
+                <a:srgbClr val="ADCDEA"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-D697-453E-8324-405DDA0D652B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1532,12 +1351,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000062-D697-453E-8324-405DDA0D652B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1556,20 +1389,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>37</xdr:col>
@@ -1583,14 +1422,14 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15163560" y="3105000"/>
-        <a:ext cx="5181120" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1603,807 +1442,1211 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A186"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>16</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>19</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>13</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>22</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>32</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>28</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>22</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>19</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>16</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>32</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>27</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>19</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>21</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>18</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>33</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>29</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>31</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>24</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>19</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>24</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>25</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>41</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>42</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>31</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>34</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>33</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>29</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>24</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>27</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>35</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>34</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>31</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>31</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>30</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>33</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>33</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>12</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>20</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>16</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>35</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>13</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>26</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>28</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>43</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>35</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>47</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>44</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>47</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>18</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>43</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>30</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>30</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>28</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>38</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>36</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>35</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>34</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>33</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>40</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>45</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>37</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>32</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>44</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>28</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>39</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>44</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>46</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>31</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>44</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>47</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>48</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>49</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>49</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>43</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>49</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>40</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>44</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>32</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>49</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>49</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>37</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>37</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>49</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>42</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>48</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>44</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>39</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>32</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>45</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>45</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>49</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>32</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>48</v>
       </c>
     </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обикновен"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обикновен"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
@@ -2411,110 +2654,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="26" min="2" style="0" width="2.89068825910931"/>
-    <col collapsed="false" hidden="false" max="46" min="27" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="12.748987854251"/>
+    <col min="1" max="1" width="7.85546875"/>
+    <col min="2" max="26" width="2.85546875"/>
+    <col min="27" max="46" width="7.7109375"/>
+    <col min="47" max="1025" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="n">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="2">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="2">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="2">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L1" s="2">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="2">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="2">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O1" s="2">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P1" s="2">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="2">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="R1" s="2">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="S1" s="2">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="T1" s="2">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="n">
+      <c r="U1" s="2">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="n">
+      <c r="V1" s="2">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="n">
+      <c r="W1" s="2">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="n">
+      <c r="X1" s="2">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="n">
+      <c r="Y1" s="2">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="n">
+      <c r="Z1" s="2">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="n">
+      <c r="AA1" s="2">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="n">
+      <c r="AB1" s="2">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="n">
+      <c r="AC1" s="2">
         <v>29</v>
       </c>
       <c r="AD1" s="2"/>
@@ -2535,493 +2775,493 @@
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1" t="n">
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
         <v>11</v>
       </c>
-      <c r="U2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1" t="n">
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1" t="n">
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
         <v>17</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="1">
         <v>5</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="1">
         <v>15</v>
       </c>
-      <c r="AB2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="1">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="1">
         <v>18</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="1">
         <v>17</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>20</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="1">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="1">
         <v>7</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="1">
         <v>5</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="1">
         <v>14</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="1">
         <v>7</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="1">
         <v>13</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="1">
         <v>22</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y3" s="1">
         <v>10</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="Z3" s="1">
         <v>32</v>
       </c>
-      <c r="AB3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="AB3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="1">
         <v>23</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="1">
         <v>29</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="1">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="1">
         <v>31</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="1">
         <v>24</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="1">
         <v>5</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="1">
         <v>10</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="1">
         <v>19</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="1">
         <v>24</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="1">
         <v>11</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="1">
         <v>25</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="1">
         <v>12</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Z4" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>35</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="1">
         <v>31</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="1">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1">
         <v>30</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="1">
         <v>33</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="1">
         <v>33</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="1">
         <v>12</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="1">
         <v>20</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="1">
         <v>16</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="1">
         <v>23</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="V5" s="1">
         <v>35</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="1">
         <v>13</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="X5" s="1">
         <v>26</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Y5" s="1">
         <v>28</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="Z5" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>28</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>38</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>36</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>35</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="1">
         <v>34</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="1">
         <v>33</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="1">
         <v>40</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="1">
         <v>45</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R6" s="1">
         <v>37</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="1">
         <v>32</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="1">
         <v>44</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U6" s="1">
         <v>28</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V6" s="1">
         <v>39</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W6" s="1">
         <v>44</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="X6" s="1">
         <v>46</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Y6" s="1">
         <v>31</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="Z6" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>49</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>44</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>49</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>37</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1">
         <v>37</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>49</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>42</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="1">
         <v>48</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R7" s="1">
         <v>44</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="1">
         <v>39</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="1">
         <v>17</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="U7" s="1">
         <v>32</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="V7" s="1">
         <v>45</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="W7" s="1">
         <v>45</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="X7" s="1">
         <v>49</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Y7" s="1">
         <v>32</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="Z7" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3049,7 +3289,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3077,11 +3317,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
@@ -3091,8 +3331,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,1)</f>
+      <c r="H10" s="1">
+        <f>COUNTIF(A2:Z7,1)</f>
         <v>4</v>
       </c>
       <c r="I10" s="1"/>
@@ -3116,11 +3356,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1"/>
@@ -3130,8 +3370,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,2)</f>
+      <c r="H11" s="1">
+        <f>COUNTIF(A2:Z7,2)</f>
         <v>2</v>
       </c>
       <c r="I11" s="1"/>
@@ -3155,11 +3395,11 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
@@ -3169,8 +3409,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,3)</f>
+      <c r="H12" s="1">
+        <f>COUNTIF(A2:Z7,3)</f>
         <v>3</v>
       </c>
       <c r="I12" s="1"/>
@@ -3194,11 +3434,11 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
@@ -3208,8 +3448,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,4)</f>
+      <c r="H13" s="1">
+        <f>COUNTIF(A2:Z7,4)</f>
         <v>0</v>
       </c>
       <c r="I13" s="1"/>
@@ -3233,11 +3473,11 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
@@ -3247,8 +3487,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,5)</f>
+      <c r="H14" s="1">
+        <f>COUNTIF(A2:Z7,5)</f>
         <v>5</v>
       </c>
       <c r="I14" s="1"/>
@@ -3272,11 +3512,11 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
@@ -3286,8 +3526,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="n">
-        <f aca="false">COUNTIF(A2:Z7,B15)</f>
+      <c r="H15" s="1">
+        <f>COUNTIF(A2:Z7,B15)</f>
         <v>3</v>
       </c>
       <c r="I15" s="1"/>
@@ -3311,11 +3551,11 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
@@ -3325,8 +3565,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B16)</f>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H58" si="0">COUNTIF($A$2:$Z$7,B16)</f>
         <v>3</v>
       </c>
       <c r="I16" s="1"/>
@@ -3350,11 +3590,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
@@ -3364,8 +3604,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B17)</f>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17" s="1"/>
@@ -3389,11 +3629,11 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
@@ -3403,8 +3643,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B18)</f>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I18" s="1"/>
@@ -3428,11 +3668,11 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
@@ -3442,8 +3682,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B19)</f>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I19" s="1"/>
@@ -3467,11 +3707,11 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>11</v>
       </c>
       <c r="C20" s="1"/>
@@ -3481,8 +3721,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B20)</f>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I20" s="1"/>
@@ -3506,11 +3746,11 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -3520,8 +3760,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B21)</f>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I21" s="1"/>
@@ -3545,11 +3785,11 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>13</v>
       </c>
       <c r="C22" s="1"/>
@@ -3559,8 +3799,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B22)</f>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I22" s="1"/>
@@ -3584,11 +3824,11 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
@@ -3598,8 +3838,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B23)</f>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I23" s="1"/>
@@ -3623,11 +3863,11 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
       <c r="C24" s="1"/>
@@ -3637,8 +3877,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B24)</f>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I24" s="1"/>
@@ -3662,11 +3902,11 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
@@ -3676,8 +3916,8 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B25)</f>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I25" s="1"/>
@@ -3701,11 +3941,11 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
@@ -3715,8 +3955,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B26)</f>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I26" s="1"/>
@@ -3740,11 +3980,11 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>18</v>
       </c>
       <c r="C27" s="1"/>
@@ -3754,8 +3994,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B27)</f>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I27" s="1"/>
@@ -3779,11 +4019,11 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>19</v>
       </c>
       <c r="C28" s="1"/>
@@ -3793,8 +4033,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B28)</f>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I28" s="1"/>
@@ -3818,11 +4058,11 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>20</v>
       </c>
       <c r="C29" s="1"/>
@@ -3832,8 +4072,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B29)</f>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I29" s="1"/>
@@ -3857,11 +4097,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>21</v>
       </c>
       <c r="C30" s="1"/>
@@ -3871,8 +4111,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B30)</f>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I30" s="1"/>
@@ -3896,11 +4136,11 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>22</v>
       </c>
       <c r="C31" s="1"/>
@@ -3910,8 +4150,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B31)</f>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I31" s="1"/>
@@ -3935,11 +4175,11 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>23</v>
       </c>
       <c r="C32" s="1"/>
@@ -3949,8 +4189,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B32)</f>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I32" s="1"/>
@@ -3974,11 +4214,11 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>24</v>
       </c>
       <c r="C33" s="1"/>
@@ -3988,8 +4228,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B33)</f>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I33" s="1"/>
@@ -4013,11 +4253,11 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>25</v>
       </c>
       <c r="C34" s="1"/>
@@ -4027,8 +4267,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B34)</f>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I34" s="1"/>
@@ -4052,11 +4292,11 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>26</v>
       </c>
       <c r="C35" s="1"/>
@@ -4066,8 +4306,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B35)</f>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I35" s="1"/>
@@ -4091,11 +4331,11 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>27</v>
       </c>
       <c r="C36" s="1"/>
@@ -4105,8 +4345,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B36)</f>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I36" s="1"/>
@@ -4130,11 +4370,11 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>28</v>
       </c>
       <c r="C37" s="1"/>
@@ -4144,8 +4384,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B37)</f>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I37" s="1"/>
@@ -4169,11 +4409,11 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>29</v>
       </c>
       <c r="C38" s="1"/>
@@ -4183,8 +4423,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B38)</f>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I38" s="1"/>
@@ -4208,11 +4448,11 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>30</v>
       </c>
       <c r="C39" s="1"/>
@@ -4222,8 +4462,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B39)</f>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I39" s="1"/>
@@ -4247,11 +4487,11 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>31</v>
       </c>
       <c r="C40" s="1"/>
@@ -4261,8 +4501,8 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B40)</f>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I40" s="1"/>
@@ -4286,11 +4526,11 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>32</v>
       </c>
       <c r="C41" s="1"/>
@@ -4300,8 +4540,8 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B41)</f>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I41" s="1"/>
@@ -4325,11 +4565,11 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>33</v>
       </c>
       <c r="C42" s="1"/>
@@ -4339,8 +4579,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B42)</f>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I42" s="1"/>
@@ -4364,11 +4604,11 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>34</v>
       </c>
       <c r="C43" s="1"/>
@@ -4378,8 +4618,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B43)</f>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I43" s="1"/>
@@ -4403,11 +4643,11 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>35</v>
       </c>
       <c r="C44" s="1"/>
@@ -4417,8 +4657,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B44)</f>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I44" s="1"/>
@@ -4442,11 +4682,11 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>36</v>
       </c>
       <c r="C45" s="1"/>
@@ -4456,8 +4696,8 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B45)</f>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I45" s="1"/>
@@ -4481,11 +4721,11 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>37</v>
       </c>
       <c r="C46" s="1"/>
@@ -4495,8 +4735,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B46)</f>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I46" s="1"/>
@@ -4520,11 +4760,11 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>38</v>
       </c>
       <c r="C47" s="1"/>
@@ -4534,8 +4774,8 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B47)</f>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I47" s="1"/>
@@ -4559,11 +4799,11 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>39</v>
       </c>
       <c r="C48" s="1"/>
@@ -4573,8 +4813,8 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B48)</f>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I48" s="1"/>
@@ -4598,11 +4838,11 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>40</v>
       </c>
       <c r="C49" s="1"/>
@@ -4612,8 +4852,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B49)</f>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I49" s="1"/>
@@ -4637,11 +4877,11 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>41</v>
       </c>
       <c r="C50" s="1"/>
@@ -4651,8 +4891,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B50)</f>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I50" s="1"/>
@@ -4676,11 +4916,11 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>42</v>
       </c>
       <c r="C51" s="1"/>
@@ -4690,8 +4930,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B51)</f>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I51" s="1"/>
@@ -4715,11 +4955,11 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>43</v>
       </c>
       <c r="C52" s="1"/>
@@ -4729,8 +4969,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B52)</f>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I52" s="1"/>
@@ -4754,11 +4994,11 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>44</v>
       </c>
       <c r="C53" s="1"/>
@@ -4768,8 +5008,8 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B53)</f>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I53" s="1"/>
@@ -4793,11 +5033,11 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="1">
         <v>45</v>
       </c>
       <c r="C54" s="1"/>
@@ -4807,8 +5047,8 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B54)</f>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I54" s="1"/>
@@ -4832,11 +5072,11 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>46</v>
       </c>
       <c r="C55" s="1"/>
@@ -4846,8 +5086,8 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B55)</f>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I55" s="1"/>
@@ -4871,11 +5111,11 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>47</v>
       </c>
       <c r="C56" s="1"/>
@@ -4885,8 +5125,8 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B56)</f>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I56" s="1"/>
@@ -4910,11 +5150,11 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>48</v>
       </c>
       <c r="C57" s="1"/>
@@ -4924,8 +5164,8 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B57)</f>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I57" s="1"/>
@@ -4949,11 +5189,11 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>49</v>
       </c>
       <c r="C58" s="1"/>
@@ -4963,8 +5203,8 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1" t="n">
-        <f aca="false">COUNTIF($A$2:$Z$7,B58)</f>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I58" s="1"/>
@@ -4989,46 +5229,36 @@
       <c r="Z58" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.71255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.71255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="1.71255060728745"/>
-    <col collapsed="false" hidden="false" max="26" min="9" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.748987854251"/>
+    <col min="1" max="1" width="7.7109375"/>
+    <col min="2" max="2" width="1.7109375"/>
+    <col min="3" max="3" width="2.7109375"/>
+    <col min="4" max="4" width="1.7109375"/>
+    <col min="5" max="5" width="11.7109375"/>
+    <col min="6" max="8" width="1.7109375"/>
+    <col min="9" max="26" width="7.7109375"/>
+    <col min="27" max="1025" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -5036,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>4</v>
       </c>
       <c r="H1" s="1"/>
@@ -5044,12 +5274,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
@@ -5057,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1"/>
@@ -5065,12 +5295,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -5078,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1"/>
@@ -5086,12 +5316,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
@@ -5099,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -5107,12 +5337,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
@@ -5120,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1"/>
@@ -5128,12 +5358,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
       <c r="D6" s="1"/>
@@ -5141,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" s="1"/>
@@ -5149,12 +5379,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>7</v>
       </c>
       <c r="D7" s="1"/>
@@ -5162,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1"/>
@@ -5170,12 +5400,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
@@ -5183,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1"/>
@@ -5191,12 +5421,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>9</v>
       </c>
       <c r="D9" s="1"/>
@@ -5204,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
@@ -5212,12 +5442,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
@@ -5225,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
@@ -5233,12 +5463,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>11</v>
       </c>
       <c r="D11" s="1"/>
@@ -5246,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>4</v>
       </c>
       <c r="H11" s="1"/>
@@ -5254,12 +5484,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>12</v>
       </c>
       <c r="D12" s="1"/>
@@ -5267,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" s="1"/>
@@ -5275,12 +5505,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>13</v>
       </c>
       <c r="D13" s="1"/>
@@ -5288,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
@@ -5296,12 +5526,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
@@ -5309,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1"/>
@@ -5317,12 +5547,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>15</v>
       </c>
       <c r="D15" s="1"/>
@@ -5330,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
       <c r="H15" s="1"/>
@@ -5338,12 +5568,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
@@ -5351,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>5</v>
       </c>
       <c r="H16" s="1"/>
@@ -5359,12 +5589,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
@@ -5372,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="1"/>
@@ -5380,12 +5610,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>18</v>
       </c>
       <c r="D18" s="1"/>
@@ -5393,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>5</v>
       </c>
       <c r="H18" s="1"/>
@@ -5401,12 +5631,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>19</v>
       </c>
       <c r="D19" s="1"/>
@@ -5414,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="H19" s="1"/>
@@ -5422,12 +5652,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>20</v>
       </c>
       <c r="D20" s="1"/>
@@ -5435,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
       <c r="H20" s="1"/>
@@ -5443,12 +5673,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>21</v>
       </c>
       <c r="D21" s="1"/>
@@ -5456,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1"/>
@@ -5464,12 +5694,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>22</v>
       </c>
       <c r="D22" s="1"/>
@@ -5477,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" s="1"/>
@@ -5485,12 +5715,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>23</v>
       </c>
       <c r="D23" s="1"/>
@@ -5498,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>4</v>
       </c>
       <c r="H23" s="1"/>
@@ -5506,12 +5736,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>24</v>
       </c>
       <c r="D24" s="1"/>
@@ -5519,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24" s="1"/>
@@ -5527,12 +5757,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>25</v>
       </c>
       <c r="D25" s="1"/>
@@ -5540,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="1"/>
@@ -5548,12 +5778,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>26</v>
       </c>
       <c r="D26" s="1"/>
@@ -5561,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1"/>
@@ -5569,12 +5799,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
@@ -5582,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="1">
         <v>3</v>
       </c>
       <c r="H27" s="1"/>
@@ -5590,12 +5820,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>28</v>
       </c>
       <c r="D28" s="1"/>
@@ -5603,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="1">
         <v>5</v>
       </c>
       <c r="H28" s="1"/>
@@ -5611,12 +5841,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>29</v>
       </c>
       <c r="D29" s="1"/>
@@ -5624,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="1"/>
@@ -5632,12 +5862,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>30</v>
       </c>
       <c r="D30" s="1"/>
@@ -5645,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="1">
         <v>3</v>
       </c>
       <c r="H30" s="1"/>
@@ -5653,12 +5883,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>31</v>
       </c>
       <c r="D31" s="1"/>
@@ -5666,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="1">
         <v>5</v>
       </c>
       <c r="H31" s="1"/>
@@ -5674,12 +5904,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>32</v>
       </c>
       <c r="D32" s="1"/>
@@ -5687,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="1">
         <v>6</v>
       </c>
       <c r="H32" s="1"/>
@@ -5695,12 +5925,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>33</v>
       </c>
       <c r="D33" s="1"/>
@@ -5708,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="1">
         <v>6</v>
       </c>
       <c r="H33" s="1"/>
@@ -5716,12 +5946,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>34</v>
       </c>
       <c r="D34" s="1"/>
@@ -5729,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="1">
         <v>3</v>
       </c>
       <c r="H34" s="1"/>
@@ -5737,12 +5967,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>35</v>
       </c>
       <c r="D35" s="1"/>
@@ -5750,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="1">
         <v>4</v>
       </c>
       <c r="H35" s="1"/>
@@ -5758,12 +5988,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>36</v>
       </c>
       <c r="D36" s="1"/>
@@ -5771,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1"/>
@@ -5779,12 +6009,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>37</v>
       </c>
       <c r="D37" s="1"/>
@@ -5792,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="1">
         <v>3</v>
       </c>
       <c r="H37" s="1"/>
@@ -5800,12 +6030,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>38</v>
       </c>
       <c r="D38" s="1"/>
@@ -5813,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="n">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="1"/>
@@ -5821,12 +6051,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>39</v>
       </c>
       <c r="D39" s="1"/>
@@ -5834,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="n">
+      <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="H39" s="1"/>
@@ -5842,12 +6072,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>40</v>
       </c>
       <c r="D40" s="1"/>
@@ -5855,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="n">
+      <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40" s="1"/>
@@ -5863,12 +6093,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>41</v>
       </c>
       <c r="D41" s="1"/>
@@ -5876,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="n">
+      <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41" s="1"/>
@@ -5884,12 +6114,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>42</v>
       </c>
       <c r="D42" s="1"/>
@@ -5897,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="n">
+      <c r="G42" s="1">
         <v>2</v>
       </c>
       <c r="H42" s="1"/>
@@ -5905,12 +6135,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>43</v>
       </c>
       <c r="D43" s="1"/>
@@ -5918,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1" t="n">
+      <c r="G43" s="1">
         <v>3</v>
       </c>
       <c r="H43" s="1"/>
@@ -5926,12 +6156,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>44</v>
       </c>
       <c r="D44" s="1"/>
@@ -5939,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1" t="n">
+      <c r="G44" s="1">
         <v>6</v>
       </c>
       <c r="H44" s="1"/>
@@ -5947,12 +6177,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>45</v>
       </c>
       <c r="D45" s="1"/>
@@ -5960,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1" t="n">
+      <c r="G45" s="1">
         <v>3</v>
       </c>
       <c r="H45" s="1"/>
@@ -5968,12 +6198,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>46</v>
       </c>
       <c r="D46" s="1"/>
@@ -5981,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="1">
         <v>1</v>
       </c>
       <c r="H46" s="1"/>
@@ -5989,12 +6219,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>47</v>
       </c>
       <c r="D47" s="1"/>
@@ -6002,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1" t="n">
+      <c r="G47" s="1">
         <v>3</v>
       </c>
       <c r="H47" s="1"/>
@@ -6010,12 +6240,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>48</v>
       </c>
       <c r="D48" s="1"/>
@@ -6023,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="1">
         <v>3</v>
       </c>
       <c r="H48" s="1"/>
@@ -6031,12 +6261,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>49</v>
       </c>
       <c r="D49" s="1"/>
@@ -6044,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1" t="n">
+      <c r="G49" s="1">
         <v>7</v>
       </c>
       <c r="H49" s="1"/>
@@ -6053,275 +6283,260 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.748987854251"/>
+    <col min="1" max="1" width="7.7109375"/>
+    <col min="2" max="2" width="31.85546875"/>
+    <col min="3" max="26" width="7.7109375"/>
+    <col min="27" max="1025" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>